--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1813.584294483823</v>
+        <v>1935.455049274584</v>
       </c>
       <c r="AB2" t="n">
-        <v>2481.426041405038</v>
+        <v>2648.174984668</v>
       </c>
       <c r="AC2" t="n">
-        <v>2244.602222716663</v>
+        <v>2395.43688086822</v>
       </c>
       <c r="AD2" t="n">
-        <v>1813584.294483823</v>
+        <v>1935455.049274584</v>
       </c>
       <c r="AE2" t="n">
-        <v>2481426.041405038</v>
+        <v>2648174.984668</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.433453472880835e-07</v>
+        <v>1.375383511020821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.44270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2244602.222716663</v>
+        <v>2395436.88086822</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1077.22029624123</v>
+        <v>1174.699760296083</v>
       </c>
       <c r="AB3" t="n">
-        <v>1473.900332922673</v>
+        <v>1607.276036132965</v>
       </c>
       <c r="AC3" t="n">
-        <v>1333.233353780643</v>
+        <v>1453.879867070519</v>
       </c>
       <c r="AD3" t="n">
-        <v>1077220.29624123</v>
+        <v>1174699.760296084</v>
       </c>
       <c r="AE3" t="n">
-        <v>1473900.332922674</v>
+        <v>1607276.036132965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045273593830346e-06</v>
+        <v>1.934029816295563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1333233.353780643</v>
+        <v>1453879.867070519</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>920.5773242651873</v>
+        <v>993.7510174558073</v>
       </c>
       <c r="AB4" t="n">
-        <v>1259.574508064854</v>
+        <v>1359.693983283769</v>
       </c>
       <c r="AC4" t="n">
-        <v>1139.362484839069</v>
+        <v>1229.926697861657</v>
       </c>
       <c r="AD4" t="n">
-        <v>920577.3242651873</v>
+        <v>993751.0174558073</v>
       </c>
       <c r="AE4" t="n">
-        <v>1259574.508064854</v>
+        <v>1359693.983283769</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.163860127260931e-06</v>
+        <v>2.153445950807716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1139362.484839069</v>
+        <v>1229926.697861657</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>842.8840616790201</v>
+        <v>915.9724140150687</v>
       </c>
       <c r="AB5" t="n">
-        <v>1153.271158609622</v>
+        <v>1253.27386670634</v>
       </c>
       <c r="AC5" t="n">
-        <v>1043.204577858156</v>
+        <v>1133.663167848805</v>
       </c>
       <c r="AD5" t="n">
-        <v>842884.0616790201</v>
+        <v>915972.4140150687</v>
       </c>
       <c r="AE5" t="n">
-        <v>1153271.158609622</v>
+        <v>1253273.86670634</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226672126367654e-06</v>
+        <v>2.269664594242851e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.38715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1043204.577858156</v>
+        <v>1133663.167848805</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>789.6166194650673</v>
+        <v>874.8151420516712</v>
       </c>
       <c r="AB6" t="n">
-        <v>1080.388294178796</v>
+        <v>1196.960671475328</v>
       </c>
       <c r="AC6" t="n">
-        <v>977.2775517168648</v>
+        <v>1082.724424934576</v>
       </c>
       <c r="AD6" t="n">
-        <v>789616.6194650673</v>
+        <v>874815.1420516712</v>
       </c>
       <c r="AE6" t="n">
-        <v>1080388.294178796</v>
+        <v>1196960.671475328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.266691142520933e-06</v>
+        <v>2.343710251682293e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.99652777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>977277.5517168648</v>
+        <v>1082724.424934576</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>758.7580735904046</v>
+        <v>831.9316772724738</v>
       </c>
       <c r="AB7" t="n">
-        <v>1038.16627033012</v>
+        <v>1138.285623079487</v>
       </c>
       <c r="AC7" t="n">
-        <v>939.0851385653242</v>
+        <v>1029.649240806686</v>
       </c>
       <c r="AD7" t="n">
-        <v>758758.0735904046</v>
+        <v>831931.6772724738</v>
       </c>
       <c r="AE7" t="n">
-        <v>1038166.27033012</v>
+        <v>1138285.623079487</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.295996406318216e-06</v>
+        <v>2.397932662248184e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>939085.1385653242</v>
+        <v>1029649.240806686</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>741.9561353404362</v>
+        <v>815.1297390225052</v>
       </c>
       <c r="AB8" t="n">
-        <v>1015.177117167312</v>
+        <v>1115.296469916679</v>
       </c>
       <c r="AC8" t="n">
-        <v>918.2900379148958</v>
+        <v>1008.854140156257</v>
       </c>
       <c r="AD8" t="n">
-        <v>741956.1353404361</v>
+        <v>815129.7390225052</v>
       </c>
       <c r="AE8" t="n">
-        <v>1015177.117167312</v>
+        <v>1115296.469916679</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.309966299096133e-06</v>
+        <v>2.423780621406834e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.60011574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>918290.0379148958</v>
+        <v>1008854.140156257</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>721.2456301741572</v>
+        <v>794.2486416556341</v>
       </c>
       <c r="AB9" t="n">
-        <v>986.8400903158057</v>
+        <v>1086.726031290326</v>
       </c>
       <c r="AC9" t="n">
-        <v>892.6574571348302</v>
+        <v>983.0104240935407</v>
       </c>
       <c r="AD9" t="n">
-        <v>721245.6301741572</v>
+        <v>794248.641655634</v>
       </c>
       <c r="AE9" t="n">
-        <v>986840.0903158057</v>
+        <v>1086726.031290326</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.327034777114264e-06</v>
+        <v>2.455361774514208e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.4525462962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>892657.4571348302</v>
+        <v>983010.4240935406</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>703.7083871841588</v>
+        <v>776.7113986656354</v>
       </c>
       <c r="AB10" t="n">
-        <v>962.8448607683333</v>
+        <v>1062.730801742853</v>
       </c>
       <c r="AC10" t="n">
-        <v>870.9522986178524</v>
+        <v>961.3052655765628</v>
       </c>
       <c r="AD10" t="n">
-        <v>703708.3871841588</v>
+        <v>776711.3986656355</v>
       </c>
       <c r="AE10" t="n">
-        <v>962844.8607683333</v>
+        <v>1062730.801742853</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.337958603045868e-06</v>
+        <v>2.475573712502927e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.35706018518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>870952.2986178524</v>
+        <v>961305.2655765627</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>685.7534740459574</v>
+        <v>758.7564855274342</v>
       </c>
       <c r="AB11" t="n">
-        <v>938.2781564977832</v>
+        <v>1038.164097472303</v>
       </c>
       <c r="AC11" t="n">
-        <v>848.7302061232975</v>
+        <v>939.0831730820079</v>
       </c>
       <c r="AD11" t="n">
-        <v>685753.4740459574</v>
+        <v>758756.4855274342</v>
       </c>
       <c r="AE11" t="n">
-        <v>938278.1564977833</v>
+        <v>1038164.097472303</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.350563017582334e-06</v>
+        <v>2.498895179412988e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.25289351851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>848730.2061232976</v>
+        <v>939083.1730820079</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>669.0151423069281</v>
+        <v>729.9932348838701</v>
       </c>
       <c r="AB12" t="n">
-        <v>915.3760325693637</v>
+        <v>998.8089489967178</v>
       </c>
       <c r="AC12" t="n">
-        <v>828.0138287592737</v>
+        <v>903.4840247416346</v>
       </c>
       <c r="AD12" t="n">
-        <v>669015.1423069281</v>
+        <v>729993.2348838701</v>
       </c>
       <c r="AE12" t="n">
-        <v>915376.0325693637</v>
+        <v>998808.9489967178</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.36153936190784e-06</v>
+        <v>2.519204290180499e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.16030092592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>828013.8287592736</v>
+        <v>903484.0247416346</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>657.5171915479012</v>
+        <v>718.4952841248431</v>
       </c>
       <c r="AB13" t="n">
-        <v>899.644029087076</v>
+        <v>983.0769455144299</v>
       </c>
       <c r="AC13" t="n">
-        <v>813.7832656093298</v>
+        <v>889.2534615916909</v>
       </c>
       <c r="AD13" t="n">
-        <v>657517.1915479013</v>
+        <v>718495.2841248431</v>
       </c>
       <c r="AE13" t="n">
-        <v>899644.029087076</v>
+        <v>983076.9455144299</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.363535060876114e-06</v>
+        <v>2.522896855774591e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.14583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>813783.2656093298</v>
+        <v>889253.4615916909</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>649.9792815651631</v>
+        <v>710.957374142105</v>
       </c>
       <c r="AB14" t="n">
-        <v>889.3303280995752</v>
+        <v>972.7632445269295</v>
       </c>
       <c r="AC14" t="n">
-        <v>804.4538897687061</v>
+        <v>879.924085751067</v>
       </c>
       <c r="AD14" t="n">
-        <v>649979.2815651631</v>
+        <v>710957.374142105</v>
       </c>
       <c r="AE14" t="n">
-        <v>889330.3280995752</v>
+        <v>972763.2445269295</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.365478241450485e-06</v>
+        <v>2.526492248589893e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.12847222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>804453.8897687061</v>
+        <v>879924.0857510669</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>652.0057293525414</v>
+        <v>712.9838219294833</v>
       </c>
       <c r="AB15" t="n">
-        <v>892.1030033628332</v>
+        <v>975.5359197901872</v>
       </c>
       <c r="AC15" t="n">
-        <v>806.9619447963127</v>
+        <v>882.4321407786736</v>
       </c>
       <c r="AD15" t="n">
-        <v>652005.7293525414</v>
+        <v>712983.8219294833</v>
       </c>
       <c r="AE15" t="n">
-        <v>892103.0033628332</v>
+        <v>975535.9197901873</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.365583278238289e-06</v>
+        <v>2.526686594147477e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.12847222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>806961.9447963126</v>
+        <v>882432.1407786736</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1350.228869267515</v>
+        <v>1467.695308885544</v>
       </c>
       <c r="AB2" t="n">
-        <v>1847.442706825435</v>
+        <v>2008.165471764394</v>
       </c>
       <c r="AC2" t="n">
-        <v>1671.125367788139</v>
+        <v>1816.508977617141</v>
       </c>
       <c r="AD2" t="n">
-        <v>1350228.869267515</v>
+        <v>1467695.308885544</v>
       </c>
       <c r="AE2" t="n">
-        <v>1847442.706825435</v>
+        <v>2008165.471764394</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.798669604787306e-07</v>
+        <v>1.677162218650943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86747685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1671125.367788139</v>
+        <v>1816508.977617141</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>882.8044177113192</v>
+        <v>965.1504026403397</v>
       </c>
       <c r="AB3" t="n">
-        <v>1207.891950894825</v>
+        <v>1320.561360323172</v>
       </c>
       <c r="AC3" t="n">
-        <v>1092.612438388423</v>
+        <v>1194.528837513438</v>
       </c>
       <c r="AD3" t="n">
-        <v>882804.4177113192</v>
+        <v>965150.4026403397</v>
       </c>
       <c r="AE3" t="n">
-        <v>1207891.950894825</v>
+        <v>1320561.360323173</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158523190197496e-06</v>
+        <v>2.208323998179235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.57060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1092612.438388423</v>
+        <v>1194528.837513438</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>770.3760175374906</v>
+        <v>840.8730389877734</v>
       </c>
       <c r="AB4" t="n">
-        <v>1054.062453786036</v>
+        <v>1150.519588643398</v>
       </c>
       <c r="AC4" t="n">
-        <v>953.464212582641</v>
+        <v>1040.715613867656</v>
       </c>
       <c r="AD4" t="n">
-        <v>770376.0175374906</v>
+        <v>840873.0389877734</v>
       </c>
       <c r="AE4" t="n">
-        <v>1054062.453786036</v>
+        <v>1150519.588643399</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.261966641432538e-06</v>
+        <v>2.405503180909176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.45659722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>953464.212582641</v>
+        <v>1040715.613867656</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>706.1384017963494</v>
+        <v>788.3137050162269</v>
       </c>
       <c r="AB5" t="n">
-        <v>966.1697139654111</v>
+        <v>1078.605589149363</v>
       </c>
       <c r="AC5" t="n">
-        <v>873.9598324922617</v>
+        <v>975.6649855533994</v>
       </c>
       <c r="AD5" t="n">
-        <v>706138.4017963494</v>
+        <v>788313.7050162269</v>
       </c>
       <c r="AE5" t="n">
-        <v>966169.7139654111</v>
+        <v>1078605.589149363</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319555957771374e-06</v>
+        <v>2.515277305748324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.91261574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>873959.8324922618</v>
+        <v>975664.9855533994</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>672.1204431269842</v>
+        <v>742.7027159232877</v>
       </c>
       <c r="AB6" t="n">
-        <v>919.6248421475682</v>
+        <v>1016.19862165758</v>
       </c>
       <c r="AC6" t="n">
-        <v>831.8571379145757</v>
+        <v>919.2140514503033</v>
       </c>
       <c r="AD6" t="n">
-        <v>672120.4431269843</v>
+        <v>742702.7159232877</v>
       </c>
       <c r="AE6" t="n">
-        <v>919624.8421475682</v>
+        <v>1016198.62165758</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.354652843011835e-06</v>
+        <v>2.582177385603125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.60590277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>831857.1379145756</v>
+        <v>919214.0514503033</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>648.9118780909299</v>
+        <v>719.3235586866411</v>
       </c>
       <c r="AB7" t="n">
-        <v>887.8698595756118</v>
+        <v>984.2102273107768</v>
       </c>
       <c r="AC7" t="n">
-        <v>803.1328063108889</v>
+        <v>890.2785845639652</v>
       </c>
       <c r="AD7" t="n">
-        <v>648911.8780909299</v>
+        <v>719323.5586866412</v>
       </c>
       <c r="AE7" t="n">
-        <v>887869.8595756118</v>
+        <v>984210.2273107767</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.375080751449007e-06</v>
+        <v>2.621116131772483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>803132.8063108888</v>
+        <v>890278.5845639652</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>625.2742990571904</v>
+        <v>695.6859796529014</v>
       </c>
       <c r="AB8" t="n">
-        <v>855.5278811252604</v>
+        <v>951.8682488604255</v>
       </c>
       <c r="AC8" t="n">
-        <v>773.8775008915875</v>
+        <v>861.0232791446637</v>
       </c>
       <c r="AD8" t="n">
-        <v>625274.2990571904</v>
+        <v>695685.9796529014</v>
       </c>
       <c r="AE8" t="n">
-        <v>855527.8811252604</v>
+        <v>951868.2488604255</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.39311815996268e-06</v>
+        <v>2.655498216156066e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>773877.5008915875</v>
+        <v>861023.2791446637</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>605.3691033392018</v>
+        <v>664.1877535113392</v>
       </c>
       <c r="AB9" t="n">
-        <v>828.2927141886507</v>
+        <v>908.7709862498759</v>
       </c>
       <c r="AC9" t="n">
-        <v>749.2416200626109</v>
+        <v>822.0391587902768</v>
       </c>
       <c r="AD9" t="n">
-        <v>605369.1033392019</v>
+        <v>664187.7535113392</v>
       </c>
       <c r="AE9" t="n">
-        <v>828292.7141886507</v>
+        <v>908770.986249876</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.406917864066515e-06</v>
+        <v>2.681802581919409e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.17476851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>749241.6200626108</v>
+        <v>822039.1587902769</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>590.6840093081478</v>
+        <v>649.502659480285</v>
       </c>
       <c r="AB10" t="n">
-        <v>808.1999206747375</v>
+        <v>888.6781927359629</v>
       </c>
       <c r="AC10" t="n">
-        <v>731.0664545612527</v>
+        <v>803.8639932889189</v>
       </c>
       <c r="AD10" t="n">
-        <v>590684.0093081478</v>
+        <v>649502.659480285</v>
       </c>
       <c r="AE10" t="n">
-        <v>808199.9206747375</v>
+        <v>888678.1927359628</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.41398070474958e-06</v>
+        <v>2.695265446286474e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.11689814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>731066.4545612527</v>
+        <v>803863.9932889189</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>592.8039237531261</v>
+        <v>651.6225739252634</v>
       </c>
       <c r="AB11" t="n">
-        <v>811.1004811423817</v>
+        <v>891.5787532036069</v>
       </c>
       <c r="AC11" t="n">
-        <v>733.690189608827</v>
+        <v>806.4877283364932</v>
       </c>
       <c r="AD11" t="n">
-        <v>592803.9237531262</v>
+        <v>651622.5739252634</v>
       </c>
       <c r="AE11" t="n">
-        <v>811100.4811423817</v>
+        <v>891578.7532036069</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.41186185254466e-06</v>
+        <v>2.691226586976354e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>733690.189608827</v>
+        <v>806487.7283364933</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>625.1012962548737</v>
+        <v>698.1748014926176</v>
       </c>
       <c r="AB2" t="n">
-        <v>855.2911710587858</v>
+        <v>955.2735647005954</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.6633821016325</v>
+        <v>864.1035964204386</v>
       </c>
       <c r="AD2" t="n">
-        <v>625101.2962548736</v>
+        <v>698174.8014926176</v>
       </c>
       <c r="AE2" t="n">
-        <v>855291.1710587859</v>
+        <v>955273.5647005955</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.310384651470074e-06</v>
+        <v>2.790776376122946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>773663.3821016324</v>
+        <v>864103.5964204386</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.1783757460746</v>
+        <v>541.9590306932198</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.6329935537418</v>
+        <v>741.5322553394475</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.0603008356576</v>
+        <v>670.7614576369068</v>
       </c>
       <c r="AD3" t="n">
-        <v>479178.3757460746</v>
+        <v>541959.0306932199</v>
       </c>
       <c r="AE3" t="n">
-        <v>655632.9935537418</v>
+        <v>741532.2553394475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.503229137999165e-06</v>
+        <v>3.201484664461928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.66956018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>593060.3008356576</v>
+        <v>670761.4576369068</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.3979044336367</v>
+        <v>509.0079671801898</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.7813065317357</v>
+        <v>696.4471565425946</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.4891958732937</v>
+        <v>629.9792173918919</v>
       </c>
       <c r="AD4" t="n">
-        <v>446397.9044336367</v>
+        <v>509007.9671801898</v>
       </c>
       <c r="AE4" t="n">
-        <v>610781.3065317357</v>
+        <v>696447.1565425945</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.546635819028661e-06</v>
+        <v>3.293929535398964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>552489.1958732938</v>
+        <v>629979.2173918919</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>449.3146224482463</v>
+        <v>511.9246851947995</v>
       </c>
       <c r="AB5" t="n">
-        <v>614.7720887958419</v>
+        <v>700.4379388067006</v>
       </c>
       <c r="AC5" t="n">
-        <v>556.0991034792116</v>
+        <v>633.5891249978098</v>
       </c>
       <c r="AD5" t="n">
-        <v>449314.6224482463</v>
+        <v>511924.6851947994</v>
       </c>
       <c r="AE5" t="n">
-        <v>614772.0887958419</v>
+        <v>700437.9388067005</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.546514571316289e-06</v>
+        <v>3.293671309502492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>556099.1034792117</v>
+        <v>633589.1249978098</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.9133764346981</v>
+        <v>923.6024039497293</v>
       </c>
       <c r="AB2" t="n">
-        <v>1143.733559533412</v>
+        <v>1263.713555546341</v>
       </c>
       <c r="AC2" t="n">
-        <v>1034.577233851675</v>
+        <v>1143.106507438112</v>
       </c>
       <c r="AD2" t="n">
-        <v>835913.3764346981</v>
+        <v>923602.4039497293</v>
       </c>
       <c r="AE2" t="n">
-        <v>1143733.559533412</v>
+        <v>1263713.555546341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.138885507717343e-06</v>
+        <v>2.312331329445908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1034577.233851675</v>
+        <v>1143106.507438113</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.9570259459284</v>
+        <v>686.70255087711</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.6207975897846</v>
+        <v>939.5767252884807</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.5341811180937</v>
+        <v>849.9048413311637</v>
       </c>
       <c r="AD3" t="n">
-        <v>620957.0259459284</v>
+        <v>686702.55087711</v>
       </c>
       <c r="AE3" t="n">
-        <v>849620.7975897846</v>
+        <v>939576.7252884808</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.36594344745933e-06</v>
+        <v>2.773337448241076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.28587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>768534.1811180937</v>
+        <v>849904.8413311637</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>547.7847369246065</v>
+        <v>613.6155132018085</v>
       </c>
       <c r="AB4" t="n">
-        <v>749.5032436172506</v>
+        <v>839.575815968596</v>
       </c>
       <c r="AC4" t="n">
-        <v>677.9717059808287</v>
+        <v>759.4478784446111</v>
       </c>
       <c r="AD4" t="n">
-        <v>547784.7369246065</v>
+        <v>613615.5132018086</v>
       </c>
       <c r="AE4" t="n">
-        <v>749503.2436172506</v>
+        <v>839575.815968596</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448531060790771e-06</v>
+        <v>2.941018856456739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.58564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>677971.7059808287</v>
+        <v>759447.8784446111</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.9689874491347</v>
+        <v>578.6291715257445</v>
       </c>
       <c r="AB5" t="n">
-        <v>701.866799222446</v>
+        <v>791.7059597989444</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.8816169808946</v>
+        <v>716.1466541620259</v>
       </c>
       <c r="AD5" t="n">
-        <v>512968.9874491347</v>
+        <v>578629.1715257445</v>
       </c>
       <c r="AE5" t="n">
-        <v>701866.799222446</v>
+        <v>791705.9597989444</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.484025175509058e-06</v>
+        <v>3.013084180774145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>634881.6169808946</v>
+        <v>716146.6541620259</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>498.0448391010092</v>
+        <v>552.9039088405618</v>
       </c>
       <c r="AB6" t="n">
-        <v>681.4469210455836</v>
+        <v>756.5075204745866</v>
       </c>
       <c r="AC6" t="n">
-        <v>616.410583317753</v>
+        <v>684.3075044854647</v>
       </c>
       <c r="AD6" t="n">
-        <v>498044.8391010092</v>
+        <v>552903.9088405619</v>
       </c>
       <c r="AE6" t="n">
-        <v>681446.9210455837</v>
+        <v>756507.5204745866</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.498988380733435e-06</v>
+        <v>3.043464660633443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.19502314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>616410.5833177529</v>
+        <v>684307.5044854648</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.51964786806</v>
+        <v>542.8839185045925</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.2046694775647</v>
+        <v>742.797727646138</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.1956624256985</v>
+        <v>671.9061550427483</v>
       </c>
       <c r="AD2" t="n">
-        <v>482519.64786806</v>
+        <v>542883.9185045925</v>
       </c>
       <c r="AE2" t="n">
-        <v>660204.6694775647</v>
+        <v>742797.7276461381</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.456585479635716e-06</v>
+        <v>3.243531356986647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.50868055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>597195.6624256985</v>
+        <v>671906.1550427483</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.6952232566797</v>
+        <v>465.9741530386406</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.090102469862</v>
+        <v>637.5663935162377</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.1130821639895</v>
+        <v>576.7179517491006</v>
       </c>
       <c r="AD3" t="n">
-        <v>405695.2232566797</v>
+        <v>465974.1530386406</v>
       </c>
       <c r="AE3" t="n">
-        <v>555090.102469862</v>
+        <v>637566.3935162376</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.576844763205536e-06</v>
+        <v>3.511325291967389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.55381944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>502113.0821639895</v>
+        <v>576717.9517491006</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1458.817843508111</v>
+        <v>1565.627665110417</v>
       </c>
       <c r="AB2" t="n">
-        <v>1996.018931988858</v>
+        <v>2142.160842021897</v>
       </c>
       <c r="AC2" t="n">
-        <v>1805.521686550007</v>
+        <v>1937.716017800952</v>
       </c>
       <c r="AD2" t="n">
-        <v>1458817.843508111</v>
+        <v>1565627.665110417</v>
       </c>
       <c r="AE2" t="n">
-        <v>1996018.931988858</v>
+        <v>2142160.842021897</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.435348638923934e-07</v>
+        <v>1.59492507386444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.46932870370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1805521.686550007</v>
+        <v>1937716.017800952</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>925.9047958127633</v>
+        <v>1009.045408105906</v>
       </c>
       <c r="AB3" t="n">
-        <v>1266.863789667705</v>
+        <v>1380.620443312129</v>
       </c>
       <c r="AC3" t="n">
-        <v>1145.956087636314</v>
+        <v>1248.855965915381</v>
       </c>
       <c r="AD3" t="n">
-        <v>925904.7958127633</v>
+        <v>1009045.408105906</v>
       </c>
       <c r="AE3" t="n">
-        <v>1266863.789667705</v>
+        <v>1380620.443312129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.129594781672459e-06</v>
+        <v>2.135796773452221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.79050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1145956.087636314</v>
+        <v>1248855.965915381</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.5388182525689</v>
+        <v>885.5940896911402</v>
       </c>
       <c r="AB4" t="n">
-        <v>1098.069016647031</v>
+        <v>1211.708903169258</v>
       </c>
       <c r="AC4" t="n">
-        <v>993.2708508477818</v>
+        <v>1096.06510609491</v>
       </c>
       <c r="AD4" t="n">
-        <v>802538.8182525689</v>
+        <v>885594.0896911402</v>
       </c>
       <c r="AE4" t="n">
-        <v>1098069.016647031</v>
+        <v>1211708.903169258</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.238193097908558e-06</v>
+        <v>2.341130524265049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.58101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>993270.8508477819</v>
+        <v>1096065.10609491</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>748.7529904174585</v>
+        <v>819.931121036989</v>
       </c>
       <c r="AB5" t="n">
-        <v>1024.476874139777</v>
+        <v>1121.865932610921</v>
       </c>
       <c r="AC5" t="n">
-        <v>926.7022391341997</v>
+        <v>1014.796622551259</v>
       </c>
       <c r="AD5" t="n">
-        <v>748752.9904174585</v>
+        <v>819931.121036989</v>
       </c>
       <c r="AE5" t="n">
-        <v>1024476.874139777</v>
+        <v>1121865.932610921</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295318935056054e-06</v>
+        <v>2.4491419816832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.02835648148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>926702.2391341997</v>
+        <v>1014796.622551259</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>702.4119310064065</v>
+        <v>773.6753129719577</v>
       </c>
       <c r="AB6" t="n">
-        <v>961.0709922303226</v>
+        <v>1058.576695354115</v>
       </c>
       <c r="AC6" t="n">
-        <v>869.3477256034695</v>
+        <v>957.5476212712413</v>
       </c>
       <c r="AD6" t="n">
-        <v>702411.9310064064</v>
+        <v>773675.3129719577</v>
       </c>
       <c r="AE6" t="n">
-        <v>961070.9922303227</v>
+        <v>1058576.695354115</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.330908170074429e-06</v>
+        <v>2.516432814250022e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.70717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>869347.7256034695</v>
+        <v>957547.6212712412</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>680.6349418959043</v>
+        <v>751.8983238614553</v>
       </c>
       <c r="AB7" t="n">
-        <v>931.2747549963791</v>
+        <v>1028.780458120172</v>
       </c>
       <c r="AC7" t="n">
-        <v>842.3951994318519</v>
+        <v>930.5950950996236</v>
       </c>
       <c r="AD7" t="n">
-        <v>680634.9418959043</v>
+        <v>751898.3238614553</v>
       </c>
       <c r="AE7" t="n">
-        <v>931274.7549963791</v>
+        <v>1028780.458120172</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.349914221453379e-06</v>
+        <v>2.55236876568132e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.53935185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>842395.1994318519</v>
+        <v>930595.0950996235</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>654.9719413529721</v>
+        <v>726.0647311179309</v>
       </c>
       <c r="AB8" t="n">
-        <v>896.1615054818601</v>
+        <v>993.4337968308057</v>
       </c>
       <c r="AC8" t="n">
-        <v>810.6331091692431</v>
+        <v>898.6218695543639</v>
       </c>
       <c r="AD8" t="n">
-        <v>654971.9413529721</v>
+        <v>726064.731117931</v>
       </c>
       <c r="AE8" t="n">
-        <v>896161.5054818601</v>
+        <v>993433.7968308057</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372312287667666e-06</v>
+        <v>2.594718215526702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.35127314814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>810633.1091692431</v>
+        <v>898621.8695543639</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>635.7916141606026</v>
+        <v>706.8844039255616</v>
       </c>
       <c r="AB9" t="n">
-        <v>869.9181356409448</v>
+        <v>967.1904269898904</v>
       </c>
       <c r="AC9" t="n">
-        <v>786.8943697131439</v>
+        <v>874.8831300982647</v>
       </c>
       <c r="AD9" t="n">
-        <v>635791.6141606027</v>
+        <v>706884.4039255616</v>
       </c>
       <c r="AE9" t="n">
-        <v>869918.1356409448</v>
+        <v>967190.4269898904</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.385664980987722e-06</v>
+        <v>2.619965002934526e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.24421296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>786894.3697131439</v>
+        <v>874883.1300982647</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>615.0064244214971</v>
+        <v>674.3926655680073</v>
       </c>
       <c r="AB10" t="n">
-        <v>841.4789220620461</v>
+        <v>922.7337971347549</v>
       </c>
       <c r="AC10" t="n">
-        <v>761.1693547635283</v>
+        <v>834.6693786012314</v>
       </c>
       <c r="AD10" t="n">
-        <v>615006.424421497</v>
+        <v>674392.6655680073</v>
       </c>
       <c r="AE10" t="n">
-        <v>841478.9220620461</v>
+        <v>922733.7971347549</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.397887002695999e-06</v>
+        <v>2.643073957537656e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.14583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>761169.3547635283</v>
+        <v>834669.3786012314</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>601.9411346113075</v>
+        <v>661.3273757578177</v>
       </c>
       <c r="AB11" t="n">
-        <v>823.6024161438386</v>
+        <v>904.8572912165474</v>
       </c>
       <c r="AC11" t="n">
-        <v>744.998957480321</v>
+        <v>818.4989813180238</v>
       </c>
       <c r="AD11" t="n">
-        <v>601941.1346113074</v>
+        <v>661327.3757578176</v>
       </c>
       <c r="AE11" t="n">
-        <v>823602.4161438385</v>
+        <v>904857.2912165474</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.405155605914577e-06</v>
+        <v>2.656817168424979e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.08796296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>744998.9574803209</v>
+        <v>818498.9813180238</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>608.070439184061</v>
+        <v>667.4566803305711</v>
       </c>
       <c r="AB12" t="n">
-        <v>831.9888010661134</v>
+        <v>913.2436761388223</v>
       </c>
       <c r="AC12" t="n">
-        <v>752.5849575959789</v>
+        <v>826.0849814336819</v>
       </c>
       <c r="AD12" t="n">
-        <v>608070.439184061</v>
+        <v>667456.6803305711</v>
       </c>
       <c r="AE12" t="n">
-        <v>831988.8010661134</v>
+        <v>913243.6761388222</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.400202187424879e-06</v>
+        <v>2.647451424709174e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.1255787037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>752584.957595979</v>
+        <v>826084.9814336819</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.8167086550365</v>
+        <v>469.5289912178084</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.0975447358833</v>
+        <v>642.4302799413671</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.4517439751486</v>
+        <v>581.1176356803232</v>
       </c>
       <c r="AD2" t="n">
-        <v>410816.7086550365</v>
+        <v>469528.9912178084</v>
       </c>
       <c r="AE2" t="n">
-        <v>562097.5447358832</v>
+        <v>642430.2799413671</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.548376987544944e-06</v>
+        <v>3.549757595299354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03993055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>508451.7439751487</v>
+        <v>581117.6356803232</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.633307238149</v>
+        <v>443.4308411469416</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.2722597871524</v>
+        <v>606.7216396452857</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.0455739408214</v>
+        <v>548.8169778967082</v>
       </c>
       <c r="AD3" t="n">
-        <v>384633.307238149</v>
+        <v>443430.8411469416</v>
       </c>
       <c r="AE3" t="n">
-        <v>526272.2597871524</v>
+        <v>606721.6396452857</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.585556077091903e-06</v>
+        <v>3.63499313972248e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.75925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>476045.5739408215</v>
+        <v>548816.9778967082</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1081.286665715729</v>
+        <v>1172.363739702964</v>
       </c>
       <c r="AB2" t="n">
-        <v>1479.464119033244</v>
+        <v>1604.079789699505</v>
       </c>
       <c r="AC2" t="n">
-        <v>1338.266139953643</v>
+        <v>1450.988665910708</v>
       </c>
       <c r="AD2" t="n">
-        <v>1081286.665715729</v>
+        <v>1172363.739702964</v>
       </c>
       <c r="AE2" t="n">
-        <v>1479464.119033244</v>
+        <v>1604079.789699505</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.985605957177312e-07</v>
+        <v>1.957164967565044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22106481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1338266.139953643</v>
+        <v>1450988.665910708</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>745.7793360828845</v>
+        <v>825.4610298949117</v>
       </c>
       <c r="AB3" t="n">
-        <v>1020.408189090842</v>
+        <v>1129.432197872691</v>
       </c>
       <c r="AC3" t="n">
-        <v>923.0218636758999</v>
+        <v>1021.640774075766</v>
       </c>
       <c r="AD3" t="n">
-        <v>745779.3360828845</v>
+        <v>825461.0298949117</v>
       </c>
       <c r="AE3" t="n">
-        <v>1020408.189090842</v>
+        <v>1129432.197872691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254036270299026e-06</v>
+        <v>2.457893759087375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>923021.8636758999</v>
+        <v>1021640.774075766</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.9443950395514</v>
+        <v>734.2308876934728</v>
       </c>
       <c r="AB4" t="n">
-        <v>911.1745006863307</v>
+        <v>1004.607092522864</v>
       </c>
       <c r="AC4" t="n">
-        <v>824.2132851822703</v>
+        <v>908.728801587391</v>
       </c>
       <c r="AD4" t="n">
-        <v>665944.3950395514</v>
+        <v>734230.8876934728</v>
       </c>
       <c r="AE4" t="n">
-        <v>911174.5006863307</v>
+        <v>1004607.092522864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348804087359967e-06</v>
+        <v>2.643637370841825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.00810185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>824213.2851822703</v>
+        <v>908728.8015873909</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>611.5706404694889</v>
+        <v>679.9423844694309</v>
       </c>
       <c r="AB5" t="n">
-        <v>836.7779308828185</v>
+        <v>930.3271673720011</v>
       </c>
       <c r="AC5" t="n">
-        <v>756.9170195845636</v>
+        <v>841.5380482403967</v>
       </c>
       <c r="AD5" t="n">
-        <v>611570.6404694889</v>
+        <v>679942.3844694309</v>
       </c>
       <c r="AE5" t="n">
-        <v>836777.9308828185</v>
+        <v>930327.1673720011</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.398622963428625e-06</v>
+        <v>2.741281679442805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.57986111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>756917.0195845636</v>
+        <v>841538.0482403968</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>583.3041615123944</v>
+        <v>651.5053133117441</v>
       </c>
       <c r="AB6" t="n">
-        <v>798.1024873446811</v>
+        <v>891.4183120590167</v>
       </c>
       <c r="AC6" t="n">
-        <v>721.93270609638</v>
+        <v>806.3425994695621</v>
       </c>
       <c r="AD6" t="n">
-        <v>583304.1615123944</v>
+        <v>651505.3133117441</v>
       </c>
       <c r="AE6" t="n">
-        <v>798102.4873446811</v>
+        <v>891418.3120590167</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.424763879298358e-06</v>
+        <v>2.792517513281746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.36863425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>721932.70609638</v>
+        <v>806342.5994695621</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>552.801994739309</v>
+        <v>609.778537581145</v>
       </c>
       <c r="AB7" t="n">
-        <v>756.3680771051194</v>
+        <v>834.3258966489867</v>
       </c>
       <c r="AC7" t="n">
-        <v>684.1813693954698</v>
+        <v>754.6990040565571</v>
       </c>
       <c r="AD7" t="n">
-        <v>552801.994739309</v>
+        <v>609778.5375811449</v>
       </c>
       <c r="AE7" t="n">
-        <v>756368.0771051194</v>
+        <v>834325.8966489867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449785269863178e-06</v>
+        <v>2.841559092994823e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>684181.3693954698</v>
+        <v>754699.0040565571</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>545.3681683188888</v>
+        <v>602.344711160725</v>
       </c>
       <c r="AB8" t="n">
-        <v>746.196787839425</v>
+        <v>824.1546073832924</v>
       </c>
       <c r="AC8" t="n">
-        <v>674.9808137017991</v>
+        <v>745.4984483628864</v>
       </c>
       <c r="AD8" t="n">
-        <v>545368.1683188889</v>
+        <v>602344.711160725</v>
       </c>
       <c r="AE8" t="n">
-        <v>746196.787839425</v>
+        <v>824154.6073832924</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.454655204939553e-06</v>
+        <v>2.851104098442335e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>674980.8137017991</v>
+        <v>745498.4483628864</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>547.8206401667358</v>
+        <v>604.7971830085717</v>
       </c>
       <c r="AB9" t="n">
-        <v>749.5523680170709</v>
+        <v>827.5101875609382</v>
       </c>
       <c r="AC9" t="n">
-        <v>678.0161420168768</v>
+        <v>748.5337766779643</v>
       </c>
       <c r="AD9" t="n">
-        <v>547820.6401667357</v>
+        <v>604797.1830085716</v>
       </c>
       <c r="AE9" t="n">
-        <v>749552.3680170709</v>
+        <v>827510.1875609382</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.454207394817587e-06</v>
+        <v>2.850226396791989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>678016.1420168767</v>
+        <v>748533.7766779643</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1260.988261876842</v>
+        <v>1365.630565070291</v>
       </c>
       <c r="AB2" t="n">
-        <v>1725.339770775779</v>
+        <v>1868.515986497657</v>
       </c>
       <c r="AC2" t="n">
-        <v>1560.675764582515</v>
+        <v>1690.187443224978</v>
       </c>
       <c r="AD2" t="n">
-        <v>1260988.261876842</v>
+        <v>1365630.565070291</v>
       </c>
       <c r="AE2" t="n">
-        <v>1725339.770775779</v>
+        <v>1868515.986497657</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.169085373406813e-07</v>
+        <v>1.762942869958222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.30613425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1560675.764582515</v>
+        <v>1690187.443224978</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>838.3840360367193</v>
+        <v>919.7345846981591</v>
       </c>
       <c r="AB3" t="n">
-        <v>1147.114024998706</v>
+        <v>1258.421434610201</v>
       </c>
       <c r="AC3" t="n">
-        <v>1037.635072437474</v>
+        <v>1138.319459096579</v>
       </c>
       <c r="AD3" t="n">
-        <v>838384.0360367193</v>
+        <v>919734.5846981591</v>
       </c>
       <c r="AE3" t="n">
-        <v>1147114.024998706</v>
+        <v>1258421.434610201</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.190862248551155e-06</v>
+        <v>2.289674514619145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.3275462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1037635.072437475</v>
+        <v>1138319.459096579</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>734.51088209519</v>
+        <v>804.300894345197</v>
       </c>
       <c r="AB4" t="n">
-        <v>1004.990193215775</v>
+        <v>1100.479966894276</v>
       </c>
       <c r="AC4" t="n">
-        <v>909.0753396878555</v>
+        <v>995.4517033872193</v>
       </c>
       <c r="AD4" t="n">
-        <v>734510.88209519</v>
+        <v>804300.894345197</v>
       </c>
       <c r="AE4" t="n">
-        <v>1004990.193215775</v>
+        <v>1100479.966894276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.290845755165108e-06</v>
+        <v>2.481913110858758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.29456018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>909075.3396878554</v>
+        <v>995451.7033872192</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>675.5361898132243</v>
+        <v>745.4114534092519</v>
       </c>
       <c r="AB5" t="n">
-        <v>924.2984174557901</v>
+        <v>1019.90483578694</v>
       </c>
       <c r="AC5" t="n">
-        <v>836.0846737547852</v>
+        <v>922.5665497048612</v>
       </c>
       <c r="AD5" t="n">
-        <v>675536.1898132242</v>
+        <v>745411.4534092519</v>
       </c>
       <c r="AE5" t="n">
-        <v>924298.4174557901</v>
+        <v>1019904.83578694</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343552365069666e-06</v>
+        <v>2.583252272123853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.81134259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>836084.6737547852</v>
+        <v>922566.5497048612</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>639.7022137097691</v>
+        <v>709.4068851052043</v>
       </c>
       <c r="AB6" t="n">
-        <v>875.2687904675903</v>
+        <v>970.6417970238933</v>
       </c>
       <c r="AC6" t="n">
-        <v>791.7343655528255</v>
+        <v>878.0051062202504</v>
       </c>
       <c r="AD6" t="n">
-        <v>639702.2137097691</v>
+        <v>709406.8851052043</v>
       </c>
       <c r="AE6" t="n">
-        <v>875268.7904675903</v>
+        <v>970641.7970238933</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.381779739787123e-06</v>
+        <v>2.656752163280742e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>791734.3655528255</v>
+        <v>878005.1062202504</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>617.5477667617279</v>
+        <v>687.2524381571631</v>
       </c>
       <c r="AB7" t="n">
-        <v>844.9560987680611</v>
+        <v>940.3291053243644</v>
       </c>
       <c r="AC7" t="n">
-        <v>764.3146746049696</v>
+        <v>850.5854152723945</v>
       </c>
       <c r="AD7" t="n">
-        <v>617547.7667617279</v>
+        <v>687252.4381571631</v>
       </c>
       <c r="AE7" t="n">
-        <v>844956.0987680611</v>
+        <v>940329.1053243644</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.399659401419679e-06</v>
+        <v>2.691129443793147e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.33680555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>764314.6746049696</v>
+        <v>850585.4152723944</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>595.3952158458379</v>
+        <v>653.6246916844118</v>
       </c>
       <c r="AB8" t="n">
-        <v>814.6460013033688</v>
+        <v>894.3181390488755</v>
       </c>
       <c r="AC8" t="n">
-        <v>736.8973303018184</v>
+        <v>808.9656710414416</v>
       </c>
       <c r="AD8" t="n">
-        <v>595395.215845838</v>
+        <v>653624.6916844118</v>
       </c>
       <c r="AE8" t="n">
-        <v>814646.0013033688</v>
+        <v>894318.1390488755</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.414906474836398e-06</v>
+        <v>2.720445038831332e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.21527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>736897.3303018184</v>
+        <v>808965.6710414416</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>576.0186565127377</v>
+        <v>634.2481323513116</v>
       </c>
       <c r="AB9" t="n">
-        <v>788.1341379903545</v>
+        <v>867.8062757358612</v>
       </c>
       <c r="AC9" t="n">
-        <v>712.9157220137643</v>
+        <v>784.9840627533875</v>
       </c>
       <c r="AD9" t="n">
-        <v>576018.6565127377</v>
+        <v>634248.1323513116</v>
       </c>
       <c r="AE9" t="n">
-        <v>788134.1379903544</v>
+        <v>867806.2757358612</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.427027349746811e-06</v>
+        <v>2.743749882368882e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>712915.7220137642</v>
+        <v>784984.0627533875</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>576.5652042491013</v>
+        <v>634.7946800876751</v>
       </c>
       <c r="AB10" t="n">
-        <v>788.8819487152313</v>
+        <v>868.5540864607381</v>
       </c>
       <c r="AC10" t="n">
-        <v>713.5921627326178</v>
+        <v>785.6605034722411</v>
       </c>
       <c r="AD10" t="n">
-        <v>576565.2042491012</v>
+        <v>634794.6800876751</v>
       </c>
       <c r="AE10" t="n">
-        <v>788881.9487152313</v>
+        <v>868554.0864607381</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.426972504158981e-06</v>
+        <v>2.743644430588169e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>713592.1627326178</v>
+        <v>785660.5034722411</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1684.40169845143</v>
+        <v>1805.330252845125</v>
       </c>
       <c r="AB2" t="n">
-        <v>2304.672714379606</v>
+        <v>2470.132497492355</v>
       </c>
       <c r="AC2" t="n">
-        <v>2084.717985147686</v>
+        <v>2234.386518784418</v>
       </c>
       <c r="AD2" t="n">
-        <v>1684401.69845143</v>
+        <v>1805330.252845126</v>
       </c>
       <c r="AE2" t="n">
-        <v>2304672.714379606</v>
+        <v>2470132.497492355</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.752274082937668e-07</v>
+        <v>1.444189863424399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.75983796296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>2084717.985147686</v>
+        <v>2234386.518784418</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.494513554433</v>
+        <v>1114.059250283999</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.599811537665</v>
+        <v>1524.30501506394</v>
       </c>
       <c r="AC3" t="n">
-        <v>1274.165022506761</v>
+        <v>1378.827483801762</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029494.513554433</v>
+        <v>1114059.250283999</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408599.811537665</v>
+        <v>1524305.01506394</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072634372224003e-06</v>
+        <v>1.998236479971672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27951388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1274165.022506762</v>
+        <v>1378827.483801762</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.9933245737732</v>
+        <v>958.5579717947883</v>
       </c>
       <c r="AB4" t="n">
-        <v>1195.83622454604</v>
+        <v>1311.541305602766</v>
       </c>
       <c r="AC4" t="n">
-        <v>1081.707293642047</v>
+        <v>1186.369644155821</v>
       </c>
       <c r="AD4" t="n">
-        <v>873993.3245737732</v>
+        <v>958557.9717947883</v>
       </c>
       <c r="AE4" t="n">
-        <v>1195836.22454604</v>
+        <v>1311541.305602766</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186451562051345e-06</v>
+        <v>2.210269271993146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.91087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1081707.293642047</v>
+        <v>1186369.644155821</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>811.6202433083728</v>
+        <v>884.0921245985695</v>
       </c>
       <c r="AB5" t="n">
-        <v>1110.494623052579</v>
+        <v>1209.653848267579</v>
       </c>
       <c r="AC5" t="n">
-        <v>1004.510574817433</v>
+        <v>1094.20618274876</v>
       </c>
       <c r="AD5" t="n">
-        <v>811620.2433083728</v>
+        <v>884092.1245985695</v>
       </c>
       <c r="AE5" t="n">
-        <v>1110494.623052579</v>
+        <v>1209653.848267579</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.24807165924159e-06</v>
+        <v>2.325062839394539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1004510.574817433</v>
+        <v>1094206.18274876</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>761.6501498844917</v>
+        <v>846.1294562509352</v>
       </c>
       <c r="AB6" t="n">
-        <v>1042.123336705091</v>
+        <v>1157.71165063962</v>
       </c>
       <c r="AC6" t="n">
-        <v>942.6645480792455</v>
+        <v>1047.221275561081</v>
       </c>
       <c r="AD6" t="n">
-        <v>761650.1498844917</v>
+        <v>846129.4562509352</v>
       </c>
       <c r="AE6" t="n">
-        <v>1042123.336705091</v>
+        <v>1157711.65063962</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.2863989361881e-06</v>
+        <v>2.396463649358979e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.9068287037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>942664.5480792455</v>
+        <v>1047221.275561081</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>723.895456185664</v>
+        <v>796.4525888218811</v>
       </c>
       <c r="AB7" t="n">
-        <v>990.4656991668222</v>
+        <v>1089.741569034472</v>
       </c>
       <c r="AC7" t="n">
-        <v>895.9370429656797</v>
+        <v>985.7381631477191</v>
       </c>
       <c r="AD7" t="n">
-        <v>723895.4561856639</v>
+        <v>796452.5888218811</v>
       </c>
       <c r="AE7" t="n">
-        <v>990465.6991668222</v>
+        <v>1089741.569034472</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.322449869338062e-06</v>
+        <v>2.46362380348299e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.58275462962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>895937.0429656797</v>
+        <v>985738.1631477191</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>711.0053043763471</v>
+        <v>783.3918448119721</v>
       </c>
       <c r="AB8" t="n">
-        <v>972.8288247879523</v>
+        <v>1071.871282880755</v>
       </c>
       <c r="AC8" t="n">
-        <v>879.9834071240202</v>
+        <v>969.5733920234086</v>
       </c>
       <c r="AD8" t="n">
-        <v>711005.3043763471</v>
+        <v>783391.8448119721</v>
       </c>
       <c r="AE8" t="n">
-        <v>972828.8247879522</v>
+        <v>1071871.282880755</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.332084626802517e-06</v>
+        <v>2.481572625877366e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.49884259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>879983.4071240203</v>
+        <v>969573.3920234086</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>692.4410048443656</v>
+        <v>764.8275452799905</v>
       </c>
       <c r="AB9" t="n">
-        <v>947.4283311692016</v>
+        <v>1046.470789262004</v>
       </c>
       <c r="AC9" t="n">
-        <v>857.0071009664265</v>
+        <v>946.5970858658148</v>
       </c>
       <c r="AD9" t="n">
-        <v>692441.0048443655</v>
+        <v>764827.5452799905</v>
       </c>
       <c r="AE9" t="n">
-        <v>947428.3311692015</v>
+        <v>1046470.789262004</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345848566037451e-06</v>
+        <v>2.507213800726474e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>857007.1009664265</v>
+        <v>946597.0858658148</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>675.7226763734839</v>
+        <v>748.1092168091087</v>
       </c>
       <c r="AB10" t="n">
-        <v>924.5535765947435</v>
+        <v>1023.596034687546</v>
       </c>
       <c r="AC10" t="n">
-        <v>836.3154808636351</v>
+        <v>925.9054657630234</v>
       </c>
       <c r="AD10" t="n">
-        <v>675722.6763734838</v>
+        <v>748109.2168091087</v>
       </c>
       <c r="AE10" t="n">
-        <v>924553.5765947435</v>
+        <v>1023596.034687546</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.357547914387145e-06</v>
+        <v>2.529008799348217e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>836315.4808636351</v>
+        <v>925905.4657630234</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>657.9937806345548</v>
+        <v>718.4581473399536</v>
       </c>
       <c r="AB11" t="n">
-        <v>900.2961193010618</v>
+        <v>983.0261333269847</v>
       </c>
       <c r="AC11" t="n">
-        <v>814.3731212485073</v>
+        <v>889.2074988480999</v>
       </c>
       <c r="AD11" t="n">
-        <v>657993.7806345548</v>
+        <v>718458.1473399536</v>
       </c>
       <c r="AE11" t="n">
-        <v>900296.1193010618</v>
+        <v>983026.1333269847</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.367288548307253e-06</v>
+        <v>2.547154861549124e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.2037037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>814373.1212485073</v>
+        <v>889207.4988481</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>645.8264107765048</v>
+        <v>706.2907774819033</v>
       </c>
       <c r="AB12" t="n">
-        <v>883.648187074804</v>
+        <v>966.378201100727</v>
       </c>
       <c r="AC12" t="n">
-        <v>799.3140443084038</v>
+        <v>874.1484219079966</v>
       </c>
       <c r="AD12" t="n">
-        <v>645826.4107765048</v>
+        <v>706290.7774819033</v>
       </c>
       <c r="AE12" t="n">
-        <v>883648.187074804</v>
+        <v>966378.201100727</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.371100100710773e-06</v>
+        <v>2.554255494584261e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>799314.0443084039</v>
+        <v>874148.4219079966</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>635.9438097331704</v>
+        <v>696.4081764385691</v>
       </c>
       <c r="AB13" t="n">
-        <v>870.1263763377267</v>
+        <v>952.8563903636497</v>
       </c>
       <c r="AC13" t="n">
-        <v>787.0827362100928</v>
+        <v>861.9171138096854</v>
       </c>
       <c r="AD13" t="n">
-        <v>635943.8097331704</v>
+        <v>696408.1764385691</v>
       </c>
       <c r="AE13" t="n">
-        <v>870126.3763377267</v>
+        <v>952856.3903636497</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.37687036754388e-06</v>
+        <v>2.565005064040234e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.1255787037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>787082.7362100928</v>
+        <v>861917.1138096853</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>638.4179618833231</v>
+        <v>698.8823285887217</v>
       </c>
       <c r="AB14" t="n">
-        <v>873.5116204614546</v>
+        <v>956.2416344873776</v>
       </c>
       <c r="AC14" t="n">
-        <v>790.144897385872</v>
+        <v>864.9792749854647</v>
       </c>
       <c r="AD14" t="n">
-        <v>638417.961883323</v>
+        <v>698882.3285887217</v>
       </c>
       <c r="AE14" t="n">
-        <v>873511.6204614546</v>
+        <v>956241.6344873776</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.376764491088226e-06</v>
+        <v>2.564807824233702e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.1255787037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>790144.897385872</v>
+        <v>864979.2749854648</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>918.2949526246684</v>
+        <v>1007.088228336949</v>
       </c>
       <c r="AB2" t="n">
-        <v>1256.451666495166</v>
+        <v>1377.942543607564</v>
       </c>
       <c r="AC2" t="n">
-        <v>1136.537682885856</v>
+        <v>1246.433641200164</v>
       </c>
       <c r="AD2" t="n">
-        <v>918294.9526246685</v>
+        <v>1007088.228336949</v>
       </c>
       <c r="AE2" t="n">
-        <v>1256451.666495166</v>
+        <v>1377942.543607564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.089238379558427e-06</v>
+        <v>2.183375450750532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.21412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1136537.682885856</v>
+        <v>1246433.641200164</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>661.4342081686088</v>
+        <v>728.0718577572426</v>
       </c>
       <c r="AB3" t="n">
-        <v>905.0034640341053</v>
+        <v>996.1800360468898</v>
       </c>
       <c r="AC3" t="n">
-        <v>818.6312036070289</v>
+        <v>901.1060115540357</v>
       </c>
       <c r="AD3" t="n">
-        <v>661434.2081686088</v>
+        <v>728071.8577572426</v>
       </c>
       <c r="AE3" t="n">
-        <v>905003.4640341053</v>
+        <v>996180.0360468897</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.32794417723441e-06</v>
+        <v>2.661860590806698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.47974537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>818631.2036070288</v>
+        <v>901106.0115540357</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>584.5233157899082</v>
+        <v>651.2462167245626</v>
       </c>
       <c r="AB4" t="n">
-        <v>799.7705880124661</v>
+        <v>891.0638046779</v>
       </c>
       <c r="AC4" t="n">
-        <v>723.4416055776258</v>
+        <v>806.0219257753449</v>
       </c>
       <c r="AD4" t="n">
-        <v>584523.3157899082</v>
+        <v>651246.2167245626</v>
       </c>
       <c r="AE4" t="n">
-        <v>799770.5880124661</v>
+        <v>891063.8046778999</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413793503222006e-06</v>
+        <v>2.833945337674307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.72164351851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>723441.6055776258</v>
+        <v>806021.9257753449</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>541.6799018469981</v>
+        <v>608.2322105810601</v>
       </c>
       <c r="AB5" t="n">
-        <v>741.1503389377511</v>
+        <v>832.210143828338</v>
       </c>
       <c r="AC5" t="n">
-        <v>670.4159908005654</v>
+        <v>752.7851757156333</v>
       </c>
       <c r="AD5" t="n">
-        <v>541679.901846998</v>
+        <v>608232.2105810601</v>
       </c>
       <c r="AE5" t="n">
-        <v>741150.3389377511</v>
+        <v>832210.143828338</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.463447516318233e-06</v>
+        <v>2.933476675589061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.32523148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>670415.9908005653</v>
+        <v>752785.1757156333</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>515.8845359758731</v>
+        <v>571.4870429299692</v>
       </c>
       <c r="AB6" t="n">
-        <v>705.8559813416525</v>
+        <v>781.9337843657293</v>
       </c>
       <c r="AC6" t="n">
-        <v>638.4900771574963</v>
+        <v>707.3071214368222</v>
       </c>
       <c r="AD6" t="n">
-        <v>515884.5359758731</v>
+        <v>571487.0429299693</v>
       </c>
       <c r="AE6" t="n">
-        <v>705855.9813416526</v>
+        <v>781933.7843657292</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.482976949381456e-06</v>
+        <v>2.972623372508243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.17476851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>638490.0771574964</v>
+        <v>707307.1214368222</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>516.3494273242242</v>
+        <v>571.9519342783203</v>
       </c>
       <c r="AB7" t="n">
-        <v>706.4920661940253</v>
+        <v>782.5698692181019</v>
       </c>
       <c r="AC7" t="n">
-        <v>639.0654549643093</v>
+        <v>707.8824992436353</v>
       </c>
       <c r="AD7" t="n">
-        <v>516349.4273242241</v>
+        <v>571951.9342783203</v>
       </c>
       <c r="AE7" t="n">
-        <v>706492.0661940252</v>
+        <v>782569.8692181018</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.482518780863844e-06</v>
+        <v>2.971704974926562e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.17766203703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>639065.4549643093</v>
+        <v>707882.4992436352</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.3842261749526</v>
+        <v>764.9009692230569</v>
       </c>
       <c r="AB2" t="n">
-        <v>944.6141558550401</v>
+        <v>1046.571251140143</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.4615065945287</v>
+        <v>946.6879598033037</v>
       </c>
       <c r="AD2" t="n">
-        <v>690384.2261749526</v>
+        <v>764900.9692230569</v>
       </c>
       <c r="AE2" t="n">
-        <v>944614.1558550401</v>
+        <v>1046571.251140143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248392108158024e-06</v>
+        <v>2.61171436210855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>854461.5065945287</v>
+        <v>946687.9598033037</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>524.7576235273256</v>
+        <v>599.1036848662866</v>
       </c>
       <c r="AB3" t="n">
-        <v>717.9965311825453</v>
+        <v>819.720092223253</v>
       </c>
       <c r="AC3" t="n">
-        <v>649.4719499609429</v>
+        <v>741.4871571058403</v>
       </c>
       <c r="AD3" t="n">
-        <v>524757.6235273256</v>
+        <v>599103.6848662866</v>
       </c>
       <c r="AE3" t="n">
-        <v>717996.5311825452</v>
+        <v>819720.092223253</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.452957554916786e-06</v>
+        <v>3.039678069824799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.88078703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>649471.9499609428</v>
+        <v>741487.1571058403</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.5502156911178</v>
+        <v>533.2511175317578</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.4593202021066</v>
+        <v>729.6177043859196</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.1439043793359</v>
+        <v>659.9840147042063</v>
       </c>
       <c r="AD4" t="n">
-        <v>469550.2156911178</v>
+        <v>533251.1175317578</v>
       </c>
       <c r="AE4" t="n">
-        <v>642459.3202021066</v>
+        <v>729617.7043859196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.526336236606281e-06</v>
+        <v>3.193190860869122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.31076388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>581143.9043793359</v>
+        <v>659984.0147042063</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.8543068193927</v>
+        <v>530.5552086600328</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.7706587487069</v>
+        <v>725.9290429325199</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.8072835979799</v>
+        <v>656.6473939228503</v>
       </c>
       <c r="AD5" t="n">
-        <v>466854.3068193927</v>
+        <v>530555.2086600328</v>
       </c>
       <c r="AE5" t="n">
-        <v>638770.6587487069</v>
+        <v>725929.0429325199</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.527946988155563e-06</v>
+        <v>3.196560653843266e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>577807.2835979799</v>
+        <v>656647.3939228503</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.6518277196286</v>
+        <v>621.4241832853148</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.0578796132321</v>
+        <v>850.2599828710604</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.282531102808</v>
+        <v>769.1123634532266</v>
       </c>
       <c r="AD2" t="n">
-        <v>549651.8277196286</v>
+        <v>621424.1832853148</v>
       </c>
       <c r="AE2" t="n">
-        <v>752057.8796132321</v>
+        <v>850259.9828710604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378234209948217e-06</v>
+        <v>2.996082389509993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.95717592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>680282.531102808</v>
+        <v>769112.3634532266</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.2664872062276</v>
+        <v>493.6882062229993</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.4460780470662</v>
+        <v>675.4859837408129</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.9992944580378</v>
+        <v>611.0185495031216</v>
       </c>
       <c r="AD3" t="n">
-        <v>432266.4872062276</v>
+        <v>493688.2062229993</v>
       </c>
       <c r="AE3" t="n">
-        <v>591446.0780470662</v>
+        <v>675485.9837408129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.556461066990731e-06</v>
+        <v>3.383521871035308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.47280092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>534999.2944580377</v>
+        <v>611018.5495031215</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>428.5808474595364</v>
+        <v>490.0025664763081</v>
       </c>
       <c r="AB4" t="n">
-        <v>586.4032231466933</v>
+        <v>670.44312884044</v>
       </c>
       <c r="AC4" t="n">
-        <v>530.437722551665</v>
+        <v>606.4569775967489</v>
       </c>
       <c r="AD4" t="n">
-        <v>428580.8474595363</v>
+        <v>490002.5664763081</v>
       </c>
       <c r="AE4" t="n">
-        <v>586403.2231466933</v>
+        <v>670443.12884044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.562262079650702e-06</v>
+        <v>3.396132435877198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.42939814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>530437.722551665</v>
+        <v>606456.9775967489</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.6573412922672</v>
+        <v>422.64635399249</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.3085060194629</v>
+        <v>578.2833873737064</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.559764392363</v>
+        <v>523.0928325085908</v>
       </c>
       <c r="AD2" t="n">
-        <v>365657.3412922672</v>
+        <v>422646.35399249</v>
       </c>
       <c r="AE2" t="n">
-        <v>500308.5060194629</v>
+        <v>578283.3873737064</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.579879390573952e-06</v>
+        <v>3.757785729594535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>452559.764392363</v>
+        <v>523092.8325085909</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1161.622531219692</v>
+        <v>1265.246497075502</v>
       </c>
       <c r="AB2" t="n">
-        <v>1589.383194384017</v>
+        <v>1731.166076034665</v>
       </c>
       <c r="AC2" t="n">
-        <v>1437.694693025329</v>
+        <v>1565.946015444764</v>
       </c>
       <c r="AD2" t="n">
-        <v>1161622.531219692</v>
+        <v>1265246.497075503</v>
       </c>
       <c r="AE2" t="n">
-        <v>1589383.194384017</v>
+        <v>1731166.076034665</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.574698122658615e-07</v>
+        <v>1.858045040042739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.73900462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1437694.693025329</v>
+        <v>1565946.015444764</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>798.0471585557576</v>
+        <v>867.1867858712301</v>
       </c>
       <c r="AB3" t="n">
-        <v>1091.923329691813</v>
+        <v>1186.523218009926</v>
       </c>
       <c r="AC3" t="n">
-        <v>987.7116996300442</v>
+        <v>1073.283107378853</v>
       </c>
       <c r="AD3" t="n">
-        <v>798047.1585557576</v>
+        <v>867186.7858712301</v>
       </c>
       <c r="AE3" t="n">
-        <v>1091923.329691813</v>
+        <v>1186523.218009926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.221251776165777e-06</v>
+        <v>2.369934567418124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>987711.6996300442</v>
+        <v>1073283.107378853</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>700.8737630581427</v>
+        <v>769.9280495190436</v>
       </c>
       <c r="AB4" t="n">
-        <v>958.9664029843276</v>
+        <v>1053.449524180243</v>
       </c>
       <c r="AC4" t="n">
-        <v>867.4439954013025</v>
+        <v>952.9097801181726</v>
       </c>
       <c r="AD4" t="n">
-        <v>700873.7630581427</v>
+        <v>769928.0495190436</v>
       </c>
       <c r="AE4" t="n">
-        <v>958966.4029843276</v>
+        <v>1053449.524180243</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319075998813246e-06</v>
+        <v>2.559770120829491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.14988425925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>867443.9954013025</v>
+        <v>952909.7801181726</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>644.0965224012114</v>
+        <v>713.2360602081327</v>
       </c>
       <c r="AB5" t="n">
-        <v>881.2812774824388</v>
+        <v>975.8810433310028</v>
       </c>
       <c r="AC5" t="n">
-        <v>797.1730292455554</v>
+        <v>882.7443262131379</v>
       </c>
       <c r="AD5" t="n">
-        <v>644096.5224012113</v>
+        <v>713236.0602081327</v>
       </c>
       <c r="AE5" t="n">
-        <v>881281.2774824388</v>
+        <v>975881.0433310028</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.370536192946598e-06</v>
+        <v>2.659632651474542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.69560185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>797173.0292455554</v>
+        <v>882744.3262131379</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>615.3847786690651</v>
+        <v>684.3537242753944</v>
       </c>
       <c r="AB6" t="n">
-        <v>841.9966030353801</v>
+        <v>936.3629571090974</v>
       </c>
       <c r="AC6" t="n">
-        <v>761.6376289913372</v>
+        <v>846.9977906762687</v>
       </c>
       <c r="AD6" t="n">
-        <v>615384.7786690651</v>
+        <v>684353.7242753943</v>
       </c>
       <c r="AE6" t="n">
-        <v>841996.6030353801</v>
+        <v>936362.9571090974</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397623421074918e-06</v>
+        <v>2.712197535743034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.46701388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>761637.6289913373</v>
+        <v>846997.7906762686</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>587.5087705874662</v>
+        <v>656.4777161937955</v>
       </c>
       <c r="AB7" t="n">
-        <v>803.8554189754552</v>
+        <v>898.2217730491723</v>
       </c>
       <c r="AC7" t="n">
-        <v>727.1365860066035</v>
+        <v>812.4967476915348</v>
       </c>
       <c r="AD7" t="n">
-        <v>587508.7705874662</v>
+        <v>656477.7161937954</v>
       </c>
       <c r="AE7" t="n">
-        <v>803855.4189754552</v>
+        <v>898221.7730491722</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.421608635348052e-06</v>
+        <v>2.758742719563601e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>727136.5860066034</v>
+        <v>812496.7476915348</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>563.9755374292387</v>
+        <v>621.5919084435576</v>
       </c>
       <c r="AB8" t="n">
-        <v>771.6562111553948</v>
+        <v>850.4894718320799</v>
       </c>
       <c r="AC8" t="n">
-        <v>698.0104253890174</v>
+        <v>769.3199503098961</v>
       </c>
       <c r="AD8" t="n">
-        <v>563975.5374292387</v>
+        <v>621591.9084435576</v>
       </c>
       <c r="AE8" t="n">
-        <v>771656.2111553948</v>
+        <v>850489.4718320798</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439002070178915e-06</v>
+        <v>2.792496039932327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>698010.4253890174</v>
+        <v>769319.950309896</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>560.8757039610826</v>
+        <v>618.4920749754016</v>
       </c>
       <c r="AB9" t="n">
-        <v>767.4148822492626</v>
+        <v>846.2481429259479</v>
       </c>
       <c r="AC9" t="n">
-        <v>694.1738829609442</v>
+        <v>765.4834078818228</v>
       </c>
       <c r="AD9" t="n">
-        <v>560875.7039610826</v>
+        <v>618492.0749754016</v>
       </c>
       <c r="AE9" t="n">
-        <v>767414.8822492626</v>
+        <v>846248.1429259479</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439832966747269e-06</v>
+        <v>2.794108459695164e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.13136574074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>694173.8829609442</v>
+        <v>765483.4078818228</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1572.855210929642</v>
+        <v>1680.736776775313</v>
       </c>
       <c r="AB2" t="n">
-        <v>2152.049889068579</v>
+        <v>2299.658206857409</v>
       </c>
       <c r="AC2" t="n">
-        <v>1946.661268076862</v>
+        <v>2080.182055185503</v>
       </c>
       <c r="AD2" t="n">
-        <v>1572855.210929642</v>
+        <v>1680736.776775313</v>
       </c>
       <c r="AE2" t="n">
-        <v>2152049.889068579</v>
+        <v>2299658.206857409</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.090588074361988e-07</v>
+        <v>1.518111659274934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1946661.268076862</v>
+        <v>2080182.055185502</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>983.9264637087606</v>
+        <v>1067.749027291611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1346.251595418339</v>
+        <v>1460.941324902909</v>
       </c>
       <c r="AC3" t="n">
-        <v>1217.767232627593</v>
+        <v>1321.511135298202</v>
       </c>
       <c r="AD3" t="n">
-        <v>983926.4637087606</v>
+        <v>1067749.027291611</v>
       </c>
       <c r="AE3" t="n">
-        <v>1346251.595418339</v>
+        <v>1460941.324902909</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.100025328471675e-06</v>
+        <v>2.064078978316147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.03935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1217767.232627593</v>
+        <v>1321511.135298202</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>837.9054863298845</v>
+        <v>921.727960404184</v>
       </c>
       <c r="AB4" t="n">
-        <v>1146.459252177691</v>
+        <v>1261.148859192713</v>
       </c>
       <c r="AC4" t="n">
-        <v>1037.042790215518</v>
+        <v>1140.786582104901</v>
       </c>
       <c r="AD4" t="n">
-        <v>837905.4863298845</v>
+        <v>921727.9604041841</v>
       </c>
       <c r="AE4" t="n">
-        <v>1146459.252177692</v>
+        <v>1261148.859192713</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.212066922244096e-06</v>
+        <v>2.274312954222863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.74305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1037042.790215518</v>
+        <v>1140786.582104901</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>779.9592196418782</v>
+        <v>851.7949525206045</v>
       </c>
       <c r="AB5" t="n">
-        <v>1067.174613686298</v>
+        <v>1165.463432579837</v>
       </c>
       <c r="AC5" t="n">
-        <v>965.3249663450539</v>
+        <v>1054.233238312617</v>
       </c>
       <c r="AD5" t="n">
-        <v>779959.2196418783</v>
+        <v>851794.9525206045</v>
       </c>
       <c r="AE5" t="n">
-        <v>1067174.613686298</v>
+        <v>1165463.432579837</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271744150370616e-06</v>
+        <v>2.386290841342304e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.14409722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>965324.9663450539</v>
+        <v>1054233.238312617</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>731.8211678385646</v>
+        <v>803.7421520633116</v>
       </c>
       <c r="AB6" t="n">
-        <v>1001.310007508042</v>
+        <v>1099.71547105423</v>
       </c>
       <c r="AC6" t="n">
-        <v>905.7463857388954</v>
+        <v>994.7601699571711</v>
       </c>
       <c r="AD6" t="n">
-        <v>731821.1678385646</v>
+        <v>803742.1520633115</v>
       </c>
       <c r="AE6" t="n">
-        <v>1001310.007508042</v>
+        <v>1099715.47105423</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.308415219890223e-06</v>
+        <v>2.45510015122697e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>905746.3857388954</v>
+        <v>994760.1699571711</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>710.9696101192493</v>
+        <v>782.8905943439962</v>
       </c>
       <c r="AB7" t="n">
-        <v>972.7799863306715</v>
+        <v>1071.18544987686</v>
       </c>
       <c r="AC7" t="n">
-        <v>879.9392297405574</v>
+        <v>968.9530139588329</v>
       </c>
       <c r="AD7" t="n">
-        <v>710969.6101192493</v>
+        <v>782890.5943439963</v>
       </c>
       <c r="AE7" t="n">
-        <v>972779.9863306715</v>
+        <v>1071185.44987686</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.326777443929152e-06</v>
+        <v>2.489554885725259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>879939.2297405574</v>
+        <v>968953.0139588329</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>683.3428034220307</v>
+        <v>755.0931954461852</v>
       </c>
       <c r="AB8" t="n">
-        <v>934.9797705988445</v>
+        <v>1033.151822370186</v>
       </c>
       <c r="AC8" t="n">
-        <v>845.7466135452399</v>
+        <v>934.5492624808644</v>
       </c>
       <c r="AD8" t="n">
-        <v>683342.8034220306</v>
+        <v>755093.1954461852</v>
       </c>
       <c r="AE8" t="n">
-        <v>934979.7705988445</v>
+        <v>1033151.822370186</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.351865366307922e-06</v>
+        <v>2.536629668324667e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.42650462962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>845746.6135452399</v>
+        <v>934549.2624808644</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>664.9797381762857</v>
+        <v>736.7301302004403</v>
       </c>
       <c r="AB9" t="n">
-        <v>909.8546146083532</v>
+        <v>1008.026666379695</v>
       </c>
       <c r="AC9" t="n">
-        <v>823.019367179103</v>
+        <v>911.8220161147278</v>
       </c>
       <c r="AD9" t="n">
-        <v>664979.7381762856</v>
+        <v>736730.1302004403</v>
       </c>
       <c r="AE9" t="n">
-        <v>909854.6146083532</v>
+        <v>1008026.666379695</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.366224198477898e-06</v>
+        <v>2.563572469429434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.30497685185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>823019.3671791031</v>
+        <v>911822.0161147278</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>645.7361313050748</v>
+        <v>705.670374334248</v>
       </c>
       <c r="AB10" t="n">
-        <v>883.5246627191443</v>
+        <v>965.5293381438497</v>
       </c>
       <c r="AC10" t="n">
-        <v>799.2023089438807</v>
+        <v>873.3805732403372</v>
       </c>
       <c r="AD10" t="n">
-        <v>645736.1313050748</v>
+        <v>705670.374334248</v>
       </c>
       <c r="AE10" t="n">
-        <v>883524.6627191444</v>
+        <v>965529.3381438497</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377166802919702e-06</v>
+        <v>2.584105087371729e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.21527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>799202.3089438807</v>
+        <v>873380.5732403372</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>626.8978041687328</v>
+        <v>686.832047197906</v>
       </c>
       <c r="AB11" t="n">
-        <v>857.7492324428633</v>
+        <v>939.7539078675687</v>
       </c>
       <c r="AC11" t="n">
-        <v>775.8868495571244</v>
+        <v>850.0651138535808</v>
       </c>
       <c r="AD11" t="n">
-        <v>626897.8041687328</v>
+        <v>686832.0471979061</v>
       </c>
       <c r="AE11" t="n">
-        <v>857749.2324428633</v>
+        <v>939753.9078675688</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.389123599968307e-06</v>
+        <v>2.606540728440382e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>775886.8495571244</v>
+        <v>850065.1138535808</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>621.0178355827752</v>
+        <v>680.9520786119485</v>
       </c>
       <c r="AB12" t="n">
-        <v>849.7040000176502</v>
+        <v>931.7086754423555</v>
       </c>
       <c r="AC12" t="n">
-        <v>768.609442823019</v>
+        <v>842.7877071194753</v>
       </c>
       <c r="AD12" t="n">
-        <v>621017.8355827752</v>
+        <v>680952.0786119485</v>
       </c>
       <c r="AE12" t="n">
-        <v>849704.0000176502</v>
+        <v>931708.6754423555</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.38917697852656e-06</v>
+        <v>2.606640887552296e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.11689814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>768609.442823019</v>
+        <v>842787.7071194752</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>622.7822861808206</v>
+        <v>682.7165292099942</v>
       </c>
       <c r="AB13" t="n">
-        <v>852.1181991679626</v>
+        <v>934.1228745926679</v>
       </c>
       <c r="AC13" t="n">
-        <v>770.7932341947753</v>
+        <v>844.9714984912317</v>
       </c>
       <c r="AD13" t="n">
-        <v>622782.2861808207</v>
+        <v>682716.5292099941</v>
       </c>
       <c r="AE13" t="n">
-        <v>852118.1991679627</v>
+        <v>934122.8745926679</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.388749950060539e-06</v>
+        <v>2.605839614656988e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.12268518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>770793.2341947753</v>
+        <v>844971.4984912317</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.3499506707029</v>
+        <v>396.385960558765</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.735864752671</v>
+        <v>542.3527585508904</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.3365120464699</v>
+        <v>490.59137247167</v>
       </c>
       <c r="AD2" t="n">
-        <v>332349.9506707028</v>
+        <v>396385.960558765</v>
       </c>
       <c r="AE2" t="n">
-        <v>454735.864752671</v>
+        <v>542352.7585508904</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.533909196250912e-06</v>
+        <v>3.836190492173009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.9369212962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>411336.5120464699</v>
+        <v>490591.37247167</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.788152560503</v>
+        <v>843.400530034883</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.521622755976</v>
+        <v>1153.977813399089</v>
       </c>
       <c r="AC2" t="n">
-        <v>950.261313496503</v>
+        <v>1043.843790506313</v>
       </c>
       <c r="AD2" t="n">
-        <v>767788.152560503</v>
+        <v>843400.5300348829</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050521.622755976</v>
+        <v>1153977.813399089</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.191513320922295e-06</v>
+        <v>2.453663671903915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>950261.313496503</v>
+        <v>1043843.790506313</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>579.0182044763542</v>
+        <v>643.8166349763912</v>
       </c>
       <c r="AB3" t="n">
-        <v>792.2382518448912</v>
+        <v>880.8983231600381</v>
       </c>
       <c r="AC3" t="n">
-        <v>716.6281450021839</v>
+        <v>796.826623546205</v>
       </c>
       <c r="AD3" t="n">
-        <v>579018.2044763542</v>
+        <v>643816.6349763912</v>
       </c>
       <c r="AE3" t="n">
-        <v>792238.2518448912</v>
+        <v>880898.3231600381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407735246832706e-06</v>
+        <v>2.898925907213892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>716628.145002184</v>
+        <v>796826.623546205</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>510.0062740395339</v>
+        <v>574.7193636849992</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.8130840297392</v>
+        <v>786.3563882226885</v>
       </c>
       <c r="AC4" t="n">
-        <v>631.2147826767548</v>
+        <v>711.3076381888369</v>
       </c>
       <c r="AD4" t="n">
-        <v>510006.2740395339</v>
+        <v>574719.3636849992</v>
       </c>
       <c r="AE4" t="n">
-        <v>697813.0840297393</v>
+        <v>786356.3882226885</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485981952484352e-06</v>
+        <v>3.060058053814647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>631214.7826767548</v>
+        <v>711307.6381888369</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.9834301276263</v>
+        <v>546.6965197730916</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.4709927088462</v>
+        <v>748.0142969017955</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.5320067380646</v>
+        <v>676.6248622501466</v>
       </c>
       <c r="AD5" t="n">
-        <v>481983.4301276263</v>
+        <v>546696.5197730917</v>
       </c>
       <c r="AE5" t="n">
-        <v>659470.9927088462</v>
+        <v>748014.2969017955</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512848026475939e-06</v>
+        <v>3.115382915570128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.24421296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>596532.0067380647</v>
+        <v>676624.8622501467</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>483.2845102455917</v>
+        <v>547.997599891057</v>
       </c>
       <c r="AB6" t="n">
-        <v>661.2511879258502</v>
+        <v>749.7944921187994</v>
       </c>
       <c r="AC6" t="n">
-        <v>598.1423026220775</v>
+        <v>678.2351581341596</v>
       </c>
       <c r="AD6" t="n">
-        <v>483284.5102455917</v>
+        <v>547997.599891057</v>
       </c>
       <c r="AE6" t="n">
-        <v>661251.1879258503</v>
+        <v>749794.4921187995</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.514964391166743e-06</v>
+        <v>3.119741110369247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.22685185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>598142.3026220775</v>
+        <v>678235.1581341596</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>991.3069113477126</v>
+        <v>1081.397369977901</v>
       </c>
       <c r="AB2" t="n">
-        <v>1356.349849480323</v>
+        <v>1479.615589488675</v>
       </c>
       <c r="AC2" t="n">
-        <v>1226.90172349489</v>
+        <v>1338.403154281397</v>
       </c>
       <c r="AD2" t="n">
-        <v>991306.9113477126</v>
+        <v>1081397.369977901</v>
       </c>
       <c r="AE2" t="n">
-        <v>1356349.849480323</v>
+        <v>1479615.589488675</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.043367250295777e-06</v>
+        <v>2.06710261904053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69733796296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1226901.72349489</v>
+        <v>1338403.154281397</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>703.81197720168</v>
+        <v>782.5557876485233</v>
       </c>
       <c r="AB3" t="n">
-        <v>962.9865972003749</v>
+        <v>1070.727352585485</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.0805079237481</v>
+        <v>968.5386368300033</v>
       </c>
       <c r="AD3" t="n">
-        <v>703811.97720168</v>
+        <v>782555.7876485232</v>
       </c>
       <c r="AE3" t="n">
-        <v>962986.5972003749</v>
+        <v>1070727.352585485</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.289577922900021e-06</v>
+        <v>2.554891291755421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.69965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>871080.5079237481</v>
+        <v>968538.6368300032</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.2602148704648</v>
+        <v>687.8280588431063</v>
       </c>
       <c r="AB4" t="n">
-        <v>848.6673899352005</v>
+        <v>941.1166949414638</v>
       </c>
       <c r="AC4" t="n">
-        <v>767.6717653519466</v>
+        <v>851.2978384418271</v>
       </c>
       <c r="AD4" t="n">
-        <v>620260.2148704648</v>
+        <v>687828.0588431063</v>
       </c>
       <c r="AE4" t="n">
-        <v>848667.3899352005</v>
+        <v>941116.6949414639</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.379402368284604e-06</v>
+        <v>2.732850055801061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.87210648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>767671.7653519467</v>
+        <v>851297.8384418271</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.82758814454</v>
+        <v>646.2248399165891</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.9774421703039</v>
+        <v>884.1933354017206</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.3922266368907</v>
+        <v>799.8071644441198</v>
       </c>
       <c r="AD5" t="n">
-        <v>578827.58814454</v>
+        <v>646224.8399165891</v>
       </c>
       <c r="AE5" t="n">
-        <v>791977.4421703039</v>
+        <v>884193.3354017206</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.427682300176884e-06</v>
+        <v>2.828501489784004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.47280092592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>716392.2266368907</v>
+        <v>799807.1644441199</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>548.6204440005471</v>
+        <v>616.0176957725962</v>
       </c>
       <c r="AB6" t="n">
-        <v>750.6466949073466</v>
+        <v>842.8625881387633</v>
       </c>
       <c r="AC6" t="n">
-        <v>679.0060278846418</v>
+        <v>762.4209656918712</v>
       </c>
       <c r="AD6" t="n">
-        <v>548620.4440005471</v>
+        <v>616017.6957725962</v>
       </c>
       <c r="AE6" t="n">
-        <v>750646.6949073466</v>
+        <v>842862.5881387633</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455982377487717e-06</v>
+        <v>2.884569153314451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.24710648148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>679006.0278846418</v>
+        <v>762420.9656918711</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>529.4912254130651</v>
+        <v>585.7978515654838</v>
       </c>
       <c r="AB7" t="n">
-        <v>724.4732541143907</v>
+        <v>801.5144640891588</v>
       </c>
       <c r="AC7" t="n">
-        <v>655.3305435463108</v>
+        <v>725.0190485691044</v>
       </c>
       <c r="AD7" t="n">
-        <v>529491.2254130651</v>
+        <v>585797.8515654838</v>
       </c>
       <c r="AE7" t="n">
-        <v>724473.2541143907</v>
+        <v>801514.4640891588</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.468264611040618e-06</v>
+        <v>2.908902519286666e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.15451388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>655330.5435463107</v>
+        <v>725019.0485691044</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>531.4761371485733</v>
+        <v>587.7827633009921</v>
       </c>
       <c r="AB8" t="n">
-        <v>727.1890979190388</v>
+        <v>804.2303078938068</v>
       </c>
       <c r="AC8" t="n">
-        <v>657.7871910299538</v>
+        <v>727.4756960527475</v>
       </c>
       <c r="AD8" t="n">
-        <v>531476.1371485733</v>
+        <v>587782.7633009921</v>
       </c>
       <c r="AE8" t="n">
-        <v>727189.0979190387</v>
+        <v>804230.3078938067</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.467811809803645e-06</v>
+        <v>2.908005436670178e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>657787.1910299538</v>
+        <v>727475.6960527474</v>
       </c>
     </row>
   </sheetData>
